--- a/biology/Zoologie/Bihoreau_malais/Bihoreau_malais.xlsx
+++ b/biology/Zoologie/Bihoreau_malais/Bihoreau_malais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gorsachius melanolophus
 Le Bihoreau malais (Gorsachius melanolophus) est une espèce d'oiseaux de la famille des ardéidés qui se retrouve dans le sud de l’Asie.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce bihoreau niche en Inde, au Népal, en Thaïlande, au Laos, au Cambodge, au Viêt Nam, dans le sud de la Chine, à Taïwan, aux Philippines et dans les îles Ryūkyū. Il réside en permanence dans l’ouest de l’Inde, en Thaïlande, au Laos, au Cambodge, au Viêt Nam, dans le sud de la Chine, aux Philippines, à Taïwan et aux îles Ryūkyū. Il est seulement hivernant au Sri Lanka, en Malaisie, en Indonésie et dans le sud de la Birmanie.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bihoreau malais fréquente principalement les forêts subtropicales pluvieuses, mais il s’observe aussi dans les zones agricoles et près des habitations humaines.
 </t>
@@ -574,7 +590,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche en solitaire ou en colonie. En colonie, il peut nicher avec des membres de la même espèce ou avec d’autres espèces de héron. Le nid est une petite plate-forme de bâtonnets fragilement assemblés placée dans la fourche d’un arbre entre 5 et 10 mètres de haut. Les œufs sont au nombre de 3 à 5.
 </t>
@@ -605,10 +623,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Gorsachius melanolophus (Raffles, 1822)[1]. L'espèce a été initialement classée dans le genre Ardea sous le protonyme Ardea melanolophus Raffles, 1822[1].
-Gorsachius melanolophus a pour synonymes[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Gorsachius melanolophus (Raffles, 1822). L'espèce a été initialement classée dans le genre Ardea sous le protonyme Ardea melanolophus Raffles, 1822.
+Gorsachius melanolophus a pour synonymes :
 Ardea melanolophus Raffles, 1822
 Gorsachius melanophus subsp. melanophus
 Nycticorax melanolophus (Raffles, 1822)</t>
